--- a/data/trans_orig/P14_n_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.471506679914745</v>
+        <v>1.462660307020064</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.767611847038089</v>
+        <v>1.770103422529441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.641780180731025</v>
+        <v>1.630079308566458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.439589389554864</v>
+        <v>2.441208472493339</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.107051465926682</v>
+        <v>2.110636413197145</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.699338308274782</v>
+        <v>2.674772089279581</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.719025886680305</v>
+        <v>2.735376926836034</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.835854261519813</v>
+        <v>3.856245037310501</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.852566236439474</v>
+        <v>1.852654370490239</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.329314335759528</v>
+        <v>2.341333026625345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.302126778366243</v>
+        <v>2.284359146225256</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.315893962578115</v>
+        <v>3.306595539271566</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.694348296072481</v>
+        <v>1.697305960336148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.026405586036168</v>
+        <v>2.033838855052541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.938002635171756</v>
+        <v>1.920628582919583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.909249268497912</v>
+        <v>2.886994850845307</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.342238790796403</v>
+        <v>2.328686592838861</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.997826604086348</v>
+        <v>2.97511273593143</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.097354458036797</v>
+        <v>3.096925401066587</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.216536157301574</v>
+        <v>4.254267831719943</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.02152708238935</v>
+        <v>2.022063033724294</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.541470803304867</v>
+        <v>2.544992399815584</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.541479074783024</v>
+        <v>2.553956352191815</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.622777554670414</v>
+        <v>3.621803223836875</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4874824815821008</v>
+        <v>0.4866950958338263</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5824165794120058</v>
+        <v>0.5787042376604967</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6866114740617687</v>
+        <v>0.687105880711069</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.160926052211893</v>
+        <v>1.155821995375107</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7927776926050916</v>
+        <v>0.8000034739380104</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9531358239665705</v>
+        <v>0.9503033149108194</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.128698516471472</v>
+        <v>1.130141932281955</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.663397776728986</v>
+        <v>1.667762040702986</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6511508140429405</v>
+        <v>0.6469043739934024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7678475871944875</v>
+        <v>0.7715033133371865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9223637443143261</v>
+        <v>0.9200666331470264</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.428110434294294</v>
+        <v>1.43508284538307</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5916807274225516</v>
+        <v>0.5919438831247386</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6897323610621539</v>
+        <v>0.6835651102522211</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8032962124731622</v>
+        <v>0.8011398494479418</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.334027413481186</v>
+        <v>1.323557041609315</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9312002763798819</v>
+        <v>0.9348034184194365</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1.112449749407235</v>
+        <v>1.106786925263385</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.30461205428771</v>
+        <v>1.308935949209576</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>1.834748273669275</v>
+        <v>1.839815414034291</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7372752340507072</v>
+        <v>0.7375732298043367</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8673210974232669</v>
+        <v>0.8674716898626363</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.028358566717114</v>
+        <v>1.02794736599034</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>1.547484061450254</v>
+        <v>1.553505803836328</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.6893083321258971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.114084553724588</v>
+        <v>1.114084553724587</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7606215724083407</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4753874901611853</v>
+        <v>0.4626185542406084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4585179658168054</v>
+        <v>0.458276198984132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5819626418351859</v>
+        <v>0.5868150293077932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.003430602323922</v>
+        <v>1.010243759167695</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6575703735400384</v>
+        <v>0.6573464772004783</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7583555106768409</v>
+        <v>0.762298520865169</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7361960135021922</v>
+        <v>0.7432550084719999</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.442189300922045</v>
+        <v>1.437345350692366</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5786892546222947</v>
+        <v>0.5821791660198572</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6396923939322273</v>
+        <v>0.6397762271011574</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6961709451353842</v>
+        <v>0.6989474954097336</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.25773654975896</v>
+        <v>1.25654931833627</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6842088127821879</v>
+        <v>0.670724072595317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6999483269286914</v>
+        <v>0.7007572466249637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8465747849684656</v>
+        <v>0.8749889254936171</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.223856495293991</v>
+        <v>1.231341542095881</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.87076791280885</v>
+        <v>0.8851688465861963</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.073804780087311</v>
+        <v>1.0762376663726</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.004232586388109</v>
+        <v>1.015215344703435</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.693899981956932</v>
+        <v>1.700603310090887</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7250012171961072</v>
+        <v>0.7389305930785497</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8272553912347159</v>
+        <v>0.8286458626900013</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8847217342886124</v>
+        <v>0.8882784630819085</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.434270319243793</v>
+        <v>1.436451967902717</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8154710808589435</v>
+        <v>0.8169619372217753</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9292800004989884</v>
+        <v>0.9296233594988762</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9142222841605494</v>
+        <v>0.9077840654448999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.372893741556537</v>
+        <v>1.373932383740352</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.310185056608782</v>
+        <v>1.315333178170253</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.613580181247776</v>
+        <v>1.616091376133379</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.559731690795284</v>
+        <v>1.558897786257406</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.144779026126078</v>
+        <v>2.141162637659502</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.084651051824812</v>
+        <v>1.086004489272541</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.291840780389111</v>
+        <v>1.295621549380785</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.253089101021569</v>
+        <v>1.256754959427641</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.790814715105863</v>
+        <v>1.793140705446099</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9181440564543097</v>
+        <v>0.9178425893586184</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.035312867579963</v>
+        <v>1.034479303804732</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.017850738778865</v>
+        <v>1.016194052537057</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.515171978494517</v>
+        <v>1.530194702095499</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.436177542208843</v>
+        <v>1.440616378031952</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.764180217117491</v>
+        <v>1.765292106562195</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.718776083353088</v>
+        <v>1.730117973536529</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.293638094434949</v>
+        <v>2.287607296249661</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.166659859022462</v>
+        <v>1.167632043827288</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1.393708317984242</v>
+        <v>1.39386496065802</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1.355561180762511</v>
+        <v>1.355527840270035</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.896253685222006</v>
+        <v>1.899316234275487</v>
       </c>
     </row>
     <row r="16">
